--- a/medicine/Psychotrope/Authentic_Trappist_Product/Authentic_Trappist_Product.xlsx
+++ b/medicine/Psychotrope/Authentic_Trappist_Product/Authentic_Trappist_Product.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Authentic Trappist Product (« produit trappiste authentique » en français) est une marque collective de certification (marque privée enregistrée à l'INPI) apposée sur des produits transformés dans 12 des 175 monastères de l'ordre cistercien de la stricte observance et sous la responsabilité des moines ou des moniales de cet ordre. 
 </t>
@@ -511,9 +523,11 @@
           <t>Exigences de la marque</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le logo Authentic Trappist Product certifie que le produit qui le porte respecte les trois critères définis par l'Association internationale trappiste[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le logo Authentic Trappist Product certifie que le produit qui le porte respecte les trois critères définis par l'Association internationale trappiste : 
 ce produit doit être fabriqué au sein d’une abbaye cistercienne trappiste ;
 il doit être réalisé par ou sous le contrôle de ses moines ;
 les revenus doivent être consacrés à des œuvres à caractère social, une fois les besoins de la communauté monastique satisfaits.</t>
@@ -544,7 +558,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Seules les bières brassées au sein d'une abbaye, sous la vigilance de la communauté monastique de tradition cistercienne qui y vit, ont le droit de porter ce logo. 
 Parmi les nombreuses bières belges, seules celles d'Orval, Chimay, Rochefort, Westvleteren et Westmalle (Achel a disparu de cette liste en janvier 2021 et n'est plus du tout une bière trappiste depuis janvier 2023) peuvent se prévaloir de cette dénomination. Tout comme la Trappe pour les Pays-Bas et la Engelszell pour l'Autriche.
@@ -581,9 +597,11 @@
           <t>Autres produits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dénomination Authentic Trappist Product ne concerne pas seulement les bières, mais aussi des liqueurs et d'autres aliments, etc.[2],[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dénomination Authentic Trappist Product ne concerne pas seulement les bières, mais aussi des liqueurs et d'autres aliments, etc.,. 
 La plupart des monastères trappistes brassant de la bière fabriquent ou font fabriquer au sein de leurs bâtiments du fromage portant cette même marque de certification.
 </t>
         </is>
